--- a/src/test/resources/testdata/HRMSTestData.xlsx
+++ b/src/test/resources/testdata/HRMSTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abrehamdagnachew/eclipse-workspace/MyTestNgFrameWork/src/test/resources/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abrehamdagnachew/eclipse-workspace/Hrms/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256B4D3A-E92E-CA47-879F-1B54F3A5ECCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834F95FC-8020-D14B-ADA4-0945D183B23C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="31280" windowHeight="19240" xr2:uid="{E3D52B75-160E-3648-BE76-8E34AA209A04}"/>
+    <workbookView xWindow="2560" yWindow="880" windowWidth="31280" windowHeight="19240" activeTab="2" xr2:uid="{E3D52B75-160E-3648-BE76-8E34AA209A04}"/>
   </bookViews>
   <sheets>
     <sheet name="AddEmp" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>FirstName</t>
   </si>
@@ -77,6 +77,33 @@
   </si>
   <si>
     <t>MaryT78908978</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>Dock</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Hanger</t>
+  </si>
+  <si>
+    <t>GTA</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Fisrt</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -441,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9788A57D-836F-F84E-B1DC-B86CDA9A7F79}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -533,12 +560,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B92C13-F61A-144B-B8FC-18C1ED4B35C9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/HRMSTestData.xlsx
+++ b/src/test/resources/testdata/HRMSTestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abrehamdagnachew/eclipse-workspace/Hrms/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834F95FC-8020-D14B-ADA4-0945D183B23C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A67278-E6C1-AF42-8163-E70CD0B7A34D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2560" yWindow="880" windowWidth="31280" windowHeight="19240" activeTab="2" xr2:uid="{E3D52B75-160E-3648-BE76-8E34AA209A04}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>FirstName</t>
   </si>
@@ -82,28 +82,22 @@
     <t>MiddleName</t>
   </si>
   <si>
-    <t>Dock</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
-    <t>Hanger</t>
-  </si>
-  <si>
-    <t>GTA</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>Fisrt</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Name</t>
+    <t>Kit</t>
+  </si>
+  <si>
+    <t>Kat</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Software</t>
   </si>
 </sst>
 </file>
@@ -560,10 +554,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B92C13-F61A-144B-B8FC-18C1ED4B35C9}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -581,10 +575,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -592,24 +586,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
